--- a/tests/nrt5/input_nrt5.xlsx
+++ b/tests/nrt5/input_nrt5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VS5997\src\neonat\tests\nrt5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3EFD36-95F9-4296-9328-EA9BF8375F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F501A1EA-9286-4498-940E-173978760D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="babies" sheetId="2" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>babies</t>
   </si>
   <si>
-    <t>babies_potential</t>
-  </si>
-  <si>
     <t>old_alloc_list</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>reak</t>
+  </si>
+  <si>
+    <t>babies_service</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,18 +522,18 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -564,12 +564,12 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -589,12 +589,12 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -603,15 +603,15 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -619,10 +619,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -630,10 +630,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -641,13 +641,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +678,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -687,22 +687,22 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -725,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -788,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -895,7 +895,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -929,13 +929,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
         <v>1</v>
@@ -952,10 +952,10 @@
         <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/tests/nrt5/input_nrt5.xlsx
+++ b/tests/nrt5/input_nrt5.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VS5997\src\neonat\tests\nrt5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F501A1EA-9286-4498-940E-173978760D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9004A3-F9AE-4650-BF95-A513EE2D793B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="babies" sheetId="2" r:id="rId1"/>
-    <sheet name="rooms" sheetId="3" r:id="rId2"/>
+    <sheet name="beds" sheetId="3" r:id="rId2"/>
     <sheet name="services" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -62,15 +62,9 @@
     <t>r7</t>
   </si>
   <si>
-    <t>new_rooms_service</t>
-  </si>
-  <si>
     <t>out</t>
   </si>
   <si>
-    <t>old_rooms</t>
-  </si>
-  <si>
     <t>r8</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>r10</t>
   </si>
   <si>
-    <t>new_rooms</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -95,18 +86,9 @@
     <t>going_out</t>
   </si>
   <si>
-    <t>old_rooms_service</t>
-  </si>
-  <si>
     <t>leave_hospital</t>
   </si>
   <si>
-    <t>rooms_capacities</t>
-  </si>
-  <si>
-    <t>all_rooms</t>
-  </si>
-  <si>
     <t>bb1</t>
   </si>
   <si>
@@ -171,6 +153,24 @@
   </si>
   <si>
     <t>babies_service</t>
+  </si>
+  <si>
+    <t>all_beds</t>
+  </si>
+  <si>
+    <t>new_beds</t>
+  </si>
+  <si>
+    <t>old_beds</t>
+  </si>
+  <si>
+    <t>new_beds_service</t>
+  </si>
+  <si>
+    <t>old_beds_service</t>
+  </si>
+  <si>
+    <t>beds_capacities</t>
   </si>
 </sst>
 </file>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFF5F45-CFAD-4E61-9970-5F5BE534E7C0}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="102" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,21 +519,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -564,12 +564,12 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -589,12 +589,12 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -603,15 +603,15 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -619,35 +619,35 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE173FA1-E983-499D-AB64-6CD8215CA3C5}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScale="103" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,31 +678,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -710,10 +710,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -725,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -733,10 +733,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -753,10 +753,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -773,10 +773,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -788,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -796,10 +796,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -816,10 +816,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
@@ -836,10 +836,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
@@ -853,10 +853,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
@@ -867,10 +867,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
         <v>3</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
         <v>3</v>
@@ -895,10 +895,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -929,13 +929,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
         <v>1</v>
@@ -946,16 +946,16 @@
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
